--- a/biology/Zoologie/Hypselosaurus/Hypselosaurus.xlsx
+++ b/biology/Zoologie/Hypselosaurus/Hypselosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypselosaurus (du grec ancien ὑψηλός « haut » et σαυρος « lézard ») est un titanosaure d'environ 27 mètres de long retrouvé sur le territoire de l'actuelle Europe. Il aurait vécu lors du Crétacé supérieur (Maastrichtien). Il a été décrit scientifiquement pour la première fois par Pierre Émile Philippe Matheron en 1846[1] et a été nommé formellement en 1869[2] à partir d'échantillons retrouvés en Provence (France)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypselosaurus (du grec ancien ὑψηλός « haut » et σαυρος « lézard ») est un titanosaure d'environ 27 mètres de long retrouvé sur le territoire de l'actuelle Europe. Il aurait vécu lors du Crétacé supérieur (Maastrichtien). Il a été décrit scientifiquement pour la première fois par Pierre Émile Philippe Matheron en 1846 et a été nommé formellement en 1869 à partir d'échantillons retrouvés en Provence (France).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1846, Matheron et Paul Gervais découvrent des œufs particulièrement gros (environ 1 pied soit 30 cm de longueur) qu'ils soupçonnent d'appartenir à cet animal, qu'ils n'identifient pas à l'époque comme étant un dinosaure. Ces œufs seront reconnus comme tel plusieurs dizaines d'années plus tard[4].
-Il est considéré comme nomen dubium par nombres de spécialistes, notamment Upchurch et al. (2004)[5] et  Le Loeuff (2005)[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1846, Matheron et Paul Gervais découvrent des œufs particulièrement gros (environ 1 pied soit 30 cm de longueur) qu'ils soupçonnent d'appartenir à cet animal, qu'ils n'identifient pas à l'époque comme étant un dinosaure. Ces œufs seront reconnus comme tel plusieurs dizaines d'années plus tard.
+Il est considéré comme nomen dubium par nombres de spécialistes, notamment Upchurch et al. (2004) et  Le Loeuff (2005),.
 </t>
         </is>
       </c>
